--- a/DKSalaries_11062014_optimization.xlsx
+++ b/DKSalaries_11062014_optimization.xlsx
@@ -91,7 +91,7 @@
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">300</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.001</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:X235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1346,14 +1346,14 @@
       </c>
       <c r="S1" s="2">
         <f>SUM(J2:J120)</f>
-        <v>243.19329584352079</v>
+        <v>243.60590709046454</v>
       </c>
       <c r="T1" t="s">
         <v>15</v>
       </c>
       <c r="U1">
         <f>SUM(L:L)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
@@ -1420,14 +1420,14 @@
       </c>
       <c r="S2">
         <f>SUM(K2:K120)</f>
-        <v>50000</v>
+        <v>49600</v>
       </c>
       <c r="T2" t="s">
         <v>19</v>
       </c>
       <c r="U2">
         <f>SUM(M:M)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -1599,19 +1599,19 @@
         <v>34.264567237163817</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>34.264567237163817</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
@@ -1793,15 +1793,15 @@
         <v>33.270660146699264</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>33.270660146699264</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
@@ -1927,15 +1927,15 @@
         <v>30.640586797066014</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30.640586797066014</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
@@ -2177,15 +2177,15 @@
         <v>30.513447432762838</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30.513447432762838</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="L14">
         <f t="shared" si="5"/>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="5"/>
@@ -2300,15 +2300,15 @@
         <v>27.526180929095354</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27.526180929095354</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="L16">
         <f t="shared" si="5"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="s">
         <v>25</v>
@@ -2609,15 +2609,15 @@
         <v>23.466381418092908</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>23.466381418092908</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <f t="shared" si="5"/>
@@ -2788,15 +2788,15 @@
         <v>21.169212713936428</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21.169212713936428</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="L24">
         <f t="shared" si="6"/>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <f t="shared" si="6"/>
@@ -3084,19 +3084,18 @@
         <v>18.43520782396088</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="3"/>
-        <v>18.43520782396088</v>
+        <v>13</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
-        <v>18.43520782396088</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <f t="shared" si="6"/>
@@ -3116,7 +3115,7 @@
       </c>
       <c r="P29">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
